--- a/MuneraProject/src/main/java/resources/data.xlsx
+++ b/MuneraProject/src/main/java/resources/data.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>email</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>26.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
   </si>
 </sst>
 </file>
@@ -543,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
